--- a/Resultados/Material/Template.xlsx
+++ b/Resultados/Material/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E586DD-9B97-4CA5-9CBC-2A09BCA6B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA8367-01C5-4556-8A77-4FDC2536771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +508,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,13 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,25 +540,69 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -566,6 +613,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -678,72 +747,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -815,24 +818,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}" name="Tabela1" displayName="Tabela1" ref="A1:J4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:J4" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1160,7 +1163,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
@@ -1191,109 +1194,109 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1644,10 +1647,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1655,14 +1658,14 @@
     <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="44" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="39">
         <v>0</v>
       </c>
@@ -1673,8 +1676,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="str">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1688,9 +1691,12 @@
         <f>SUM(C3:E3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="H3" s="52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1701,9 +1707,12 @@
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+      <c r="H4" s="52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="46"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1714,8 +1723,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="52">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>SUM(C3:C5)</f>
         <v>0</v>
@@ -1788,14 +1800,14 @@
       <c r="H1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="22"/>
@@ -1832,7 +1844,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18">
         <v>1</v>
@@ -1854,7 +1866,7 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18">
         <v>2</v>
@@ -1883,7 +1895,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="29"/>
@@ -1901,7 +1913,7 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18">
         <v>0</v>
@@ -1917,7 +1929,7 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18">
         <v>2</v>
@@ -1938,7 +1950,7 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="22"/>
@@ -1955,7 +1967,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
         <v>0</v>
@@ -1970,12 +1982,12 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="53" t="e">
+      <c r="D12" s="21" t="e">
         <f>B12/SUM(B10:B12)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2063,10 +2075,10 @@
       <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="32">
         <f>'Matriz Confusão 2'!F3</f>
         <v>0</v>
@@ -2093,10 +2105,10 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="32">
         <f>'Matriz Confusão 2'!F4</f>
         <v>0</v>
@@ -2123,10 +2135,10 @@
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="32">
         <f>'Matriz Confusão 2'!F5</f>
         <v>0</v>

--- a/Resultados/Material/Template.xlsx
+++ b/Resultados/Material/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BA8367-01C5-4556-8A77-4FDC2536771E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE57DF0-091E-4312-8E2A-AF2648478E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -508,6 +508,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -532,7 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,7 +1163,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
@@ -1284,19 +1284,19 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1619,7 +1619,7 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -1634,7 +1634,7 @@
   <sheetPr codeName="Folha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1649,7 @@
   <sheetPr codeName="Folha4"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
@@ -1659,11 +1659,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="39">
@@ -1677,7 +1677,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="str">
+      <c r="A3" s="47" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1691,12 +1691,12 @@
         <f>SUM(C3:E3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="52">
+      <c r="H3" s="44">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1707,12 +1707,12 @@
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="44">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1723,7 +1723,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="44">
         <v>614</v>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1800,14 +1800,14 @@
       <c r="H1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="22"/>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="23" t="e">
-        <f>B2/SUM(B2:B4)</f>
+        <f>B2/SUM($B$2:$B$4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E2" s="25" t="str">
@@ -1844,13 +1844,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="21" t="e">
-        <f>B3/SUM(B2:B4)</f>
+        <f t="shared" ref="D3:D4" si="0">B3/SUM($B$2:$B$4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="26" t="str">
@@ -1866,13 +1866,13 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="41" t="e">
-        <f>B4/SUM(B2:B4)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="26" t="str">
@@ -1895,7 +1895,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="29"/>
@@ -1913,13 +1913,13 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18">
         <v>0</v>
       </c>
       <c r="D7" s="41" t="e">
-        <f>B7/SUM($B$6:$B$8)</f>
+        <f t="shared" ref="D7:D8" si="1">B7/SUM($B$6:$B$8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="26" t="str">
@@ -1929,13 +1929,13 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="41" t="e">
-        <f>B8/SUM($B$6:$B$8)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="26" t="str">
@@ -1950,7 +1950,7 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="22"/>
@@ -1958,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="43" t="e">
-        <f>B10/SUM(B10:B12)</f>
+        <f>B10/SUM($B$10:$B$12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E10" s="25" t="str">
@@ -1967,13 +1967,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18">
         <v>0</v>
       </c>
       <c r="D11" s="42" t="e">
-        <f>B11/SUM(B10:B12)</f>
+        <f t="shared" ref="D11:D12" si="2">B11/SUM($B$10:$B$12)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E11" s="26" t="str">
@@ -1982,13 +1982,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="21" t="e">
-        <f>B12/SUM(B10:B12)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E12" s="26" t="str">

--- a/Resultados/Material/Template.xlsx
+++ b/Resultados/Material/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE57DF0-091E-4312-8E2A-AF2648478E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9716C5A6-7B4C-49AE-A307-EF8721D790BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,7 +1650,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="44">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="44">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">

--- a/Resultados/Material/Template.xlsx
+++ b/Resultados/Material/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9716C5A6-7B4C-49AE-A307-EF8721D790BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5500DF79-5ACA-46D3-A2F3-3318D9DEF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1763,7 +1763,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1849,7 +1849,7 @@
       <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="e">
+      <c r="D3" s="41" t="e">
         <f t="shared" ref="D3:D4" si="0">B3/SUM($B$2:$B$4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="21" t="e">
+      <c r="D12" s="42" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>

--- a/Resultados/Material/Template.xlsx
+++ b/Resultados/Material/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5500DF79-5ACA-46D3-A2F3-3318D9DEF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57EE8664-261C-4E18-B40E-0732D84DB6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1763,7 +1763,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1810,7 +1810,10 @@
       <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22">
+        <f>'Matriz Confusão 2'!C3</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
@@ -1845,7 +1848,10 @@
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18">
+        <f>'Matriz Confusão 2'!D3</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1867,7 +1873,10 @@
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18">
+        <f>'Matriz Confusão 2'!E3</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -1898,7 +1907,10 @@
       <c r="A6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="29">
+        <f>'Matriz Confusão 2'!D4</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="29">
         <v>1</v>
       </c>
@@ -1914,7 +1926,10 @@
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="18">
+        <f>'Matriz Confusão 2'!C4</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="18">
         <v>0</v>
       </c>
@@ -1930,7 +1945,10 @@
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18">
+        <f>'Matriz Confusão 2'!E4</f>
+        <v>0</v>
+      </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
@@ -1953,7 +1971,10 @@
       <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="22">
+        <f>'Matriz Confusão 2'!E5</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="22">
         <v>2</v>
       </c>
@@ -1968,7 +1989,10 @@
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18">
+        <f>'Matriz Confusão 2'!C5</f>
+        <v>0</v>
+      </c>
       <c r="C11" s="18">
         <v>0</v>
       </c>
@@ -1983,7 +2007,10 @@
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="48"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18">
+        <f>'Matriz Confusão 2'!D5</f>
+        <v>0</v>
+      </c>
       <c r="C12" s="18">
         <v>1</v>
       </c>
